--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D52CD3-BAC2-4591-BF4F-5F734258BB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECB182-BA1C-4F93-8E34-7B98742A4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>Catégorie</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Optiminisation</t>
   </si>
   <si>
-    <t>Les différents types de formats pour les images</t>
-  </si>
-  <si>
     <t>Un des critères utilisé par googler pour son référencement et aussi pour la compréhension des utilisateurs du site</t>
   </si>
   <si>
@@ -142,10 +139,6 @@
  pour collecté des informations des visiteurs du site afin d'amélioré le site</t>
   </si>
   <si>
-    <t>Selon les types de formats 
-le poids des images est susceptible d'être plus ou moins conséquent</t>
-  </si>
-  <si>
     <t>Les liens externe présenté en pied de page ne présente peu d'intérét et peu même pénalisé dans le référencement google</t>
   </si>
   <si>
@@ -359,6 +352,101 @@
   <si>
     <t xml:space="preserve">https://www.w3.org/International/techniques/authoring-html.en?open=language&amp;open=textprocessing#textprocessing
 </t>
+  </si>
+  <si>
+    <t>Erreur de stockage de message dans le formulaire</t>
+  </si>
+  <si>
+    <t>Le format des images présent sur le site</t>
+  </si>
+  <si>
+    <t>Selon les types de formats des images 
+le poids des images est susceptible d'être plus ou moins conséquente et donc peut ralentir le temp de traitement de la page</t>
+  </si>
+  <si>
+    <t>Utilisé le format WebP 
+ou AVIF pour les images au lieu du format JPEG/PNG</t>
+  </si>
+  <si>
+    <t>Mettre les images en format WebP/AVIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools
+</t>
+  </si>
+  <si>
+    <t>Chargement de script javascritpt non pertinent</t>
+  </si>
+  <si>
+    <t>Lors du chargement d'une page il est  possible qu'il y ait des ressources de fichier qui se charge et qui ne sont pas utilisés, elle consomme donc des ressources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlever les ressources qui ne sont pas nécessaire pour le chargement de la page </t>
+  </si>
+  <si>
+    <t>Enlever les liens javaScript inutilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools#which-urls-get-flagged-as-render-blocking-resources
+</t>
+  </si>
+  <si>
+    <t>Optiminisation/Seo</t>
+  </si>
+  <si>
+    <t>Structure hiérarchique des balises h1 à h6</t>
+  </si>
+  <si>
+    <t>Structuré de manière ordonné les balises h1 à h6 permet non seulement on visiteur de comprendre l'architecture site mais aussi à aider les moteurs de recherche à trouver un site plus facilement</t>
+  </si>
+  <si>
+    <t>Bien structuré ses balises h1/h6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordonné ses balises 
+h1/h6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dequeuniversity.com/rules/axe/4.4/heading-order?utm_source=lighthouse&amp;utm_medium=devtools
+</t>
+  </si>
+  <si>
+    <t>Optiminisation/Accessibilité</t>
+  </si>
+  <si>
+    <t>Inclure des librairies JavaScript où les vulnérabilité sont connue</t>
+  </si>
+  <si>
+    <t>Mettre des librairies
+JavaScript où les vulnérabilité sont connue, peut permettre à des gens malveillants de faire beaucoup de dégat pour l'entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte de mettre
+des librairies JavaScript à jour </t>
+  </si>
+  <si>
+    <t>Mettre à jour les 
+librairies JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/no-vulnerable-libraries/?utm_source=lighthouse&amp;utm_medium=devtools
+</t>
+  </si>
+  <si>
+    <t>Définir une taille pour les images</t>
+  </si>
+  <si>
+    <t>Le cls(cumulative Layout Shift) est le changement de mise en page lors d'une mise à échelle d'un site afin de crée une meilleur expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Donner une taille pour les images du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/optimize-cls/?utm_source=lighthouse&amp;utm_medium=devtools#images-without-dimensions
+</t>
+  </si>
+  <si>
+    <t>Définir une taille fixe à une image permet de donner un aspect propre au site</t>
   </si>
 </sst>
 </file>
@@ -502,14 +590,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,13 +817,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
     <col min="2" max="2" width="19.08984375" customWidth="1"/>
     <col min="3" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
@@ -801,22 +889,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>9</v>
@@ -830,19 +918,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -853,22 +941,22 @@
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>9</v>
@@ -882,19 +970,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>9</v>
@@ -908,19 +996,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>9</v>
@@ -934,19 +1022,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>9</v>
@@ -960,19 +1048,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
@@ -986,19 +1074,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
@@ -1012,19 +1100,19 @@
         <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>9</v>
@@ -1035,22 +1123,22 @@
         <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>9</v>
@@ -1064,19 +1152,19 @@
         <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>9</v>
@@ -1090,19 +1178,19 @@
         <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>9</v>
@@ -1116,19 +1204,19 @@
         <v>29</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>9</v>
@@ -1139,22 +1227,22 @@
         <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="F16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>9</v>
@@ -1164,88 +1252,185 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
+        <v>97</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G18" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="H18" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G19" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="H19" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G20" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="H20" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>114</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G21" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="H21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2238,8 +2423,13 @@
     <hyperlink ref="G15" r:id="rId13" xr:uid="{C33C43A3-3405-4C1B-B9C7-1FCBD18284DC}"/>
     <hyperlink ref="G16" r:id="rId14" xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
     <hyperlink ref="G17" r:id="rId15" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
+    <hyperlink ref="G19" r:id="rId17" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
+    <hyperlink ref="G22" r:id="rId20" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId16"/>
+  <pageSetup orientation="landscape" r:id="rId21"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECB182-BA1C-4F93-8E34-7B98742A4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E41156-E9AC-4A1F-A188-E4729D85D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
   <si>
     <t>Catégorie</t>
   </si>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Seo/Optimisation </t>
   </si>
   <si>
-    <t>Une balise div contenant des mot clé dans l'en-tête du site de la page d'accueil</t>
-  </si>
-  <si>
     <t>Seo</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>L'utilisation de la proprièté "max-device-with" dans la feuille Css</t>
-  </si>
-  <si>
-    <t>Propriété padding erroné dans le code Css</t>
   </si>
   <si>
     <t>Optimisation/Seo</t>
@@ -145,9 +139,6 @@
     <t>Manque de marque sémantique</t>
   </si>
   <si>
-    <t>Cette proprièté devient obsolète avec le temp</t>
-  </si>
-  <si>
     <t>Les couleurs d'arrière plan et d'objet/texte en premier plan n'ont pas un contrast suffisant</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
 </t>
   </si>
   <si>
-    <t>Erreur de stockage de message dans le formulaire</t>
-  </si>
-  <si>
     <t>Le format des images présent sur le site</t>
   </si>
   <si>
@@ -447,6 +435,89 @@
   </si>
   <si>
     <t>Définir une taille fixe à une image permet de donner un aspect propre au site</t>
+  </si>
+  <si>
+    <t>La non utilisation de balise type "aria-label"</t>
+  </si>
+  <si>
+    <t>Une balise div contenant des mots clé dans l'en-tête du site de la page d'accueil</t>
+  </si>
+  <si>
+    <t>Les balises types "aria-label" permettent de donner plus de sens à un code, cela indique les parties non textuelles d'un site à des utilisateurs ayant des handicaps, il permet donc d'être plus accessible à un plus large public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiquer des parties de code non explicite textuellement permet non seulement d'être accessible à un plus large public et est mieux référencé sur les moteurs de recherche
+</t>
+  </si>
+  <si>
+    <t>Utiliser des balises types "aria-label" pour des parties de sites non textuels et/ou qui manquerait de compréhension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aditus.io/aria/aria-label/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/CSS/@media/device-width
+</t>
+  </si>
+  <si>
+    <t>La propriété "max-device- with" devient obsolète avec le temps, avec les nouvelles normes du web les différents navigateurs peuvent ne pas reconnaître cette propriété</t>
+  </si>
+  <si>
+    <t>Remplacé l'ancienne propriété devenue obsolète par celle qui est reconnue par les normes du web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser les propriété "max-widht"/"min-width
+</t>
+  </si>
+  <si>
+    <t>Erreur de stockage de message dans le formulaire html</t>
+  </si>
+  <si>
+    <t>Pour pouvoir utiliser des donnés stocké en html dans du javascript, l'utilisation d'une syntaxte précise dans le code html est de mise.</t>
+  </si>
+  <si>
+    <t>Stocker des donnés HTML avec la bonne syntaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser la syntaxe "data" suivit de nom de la donné
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Learn/HTML/Howto/Use_data_attributes
+</t>
+  </si>
+  <si>
+    <t>Propriété "constant(safe-area-inset-left)" est erroné dans le code Css</t>
+  </si>
+  <si>
+    <t>L'utilisation de la propriété "padding-left: constant(safe-area-inset-left)" n'est pas une propriété de "padding-left" et donc ne peut pas être utilisé dans le code Css</t>
+  </si>
+  <si>
+    <t>Utiliser une bone valeur de la propriété "padding-left" permet l'utilisation de ce bout de code</t>
+  </si>
+  <si>
+    <t>Remplacé la propriété "constant" par "env"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/CSS/env
+</t>
+  </si>
+  <si>
+    <t>Réduire le code JavaScript</t>
+  </si>
+  <si>
+    <t>Faire en sorte de supprimer des espaces et des bouts de code qui ne serve pas au site permet d'augmenter les performances de la page</t>
+  </si>
+  <si>
+    <t>Minimaliser le code JavaScript afin d'optimiser la page du site et d'avoir un code plus "propre"</t>
+  </si>
+  <si>
+    <t>Enlever les espaces et des boues de code inutilisé ou redondant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools
+</t>
   </si>
 </sst>
 </file>
@@ -817,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -889,22 +960,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>9</v>
@@ -918,19 +989,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -941,22 +1012,22 @@
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>9</v>
@@ -970,19 +1041,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>9</v>
@@ -990,25 +1061,25 @@
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>9</v>
@@ -1022,19 +1093,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>9</v>
@@ -1048,19 +1119,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
@@ -1074,19 +1145,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
@@ -1094,25 +1165,25 @@
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>9</v>
@@ -1120,25 +1191,25 @@
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>9</v>
@@ -1149,22 +1220,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>9</v>
@@ -1175,22 +1246,22 @@
         <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>9</v>
@@ -1198,25 +1269,25 @@
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>9</v>
@@ -1224,25 +1295,25 @@
     </row>
     <row r="16" spans="1:26" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>9</v>
@@ -1253,22 +1324,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>9</v>
@@ -1276,25 +1347,25 @@
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>9</v>
@@ -1302,25 +1373,25 @@
     </row>
     <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>9</v>
@@ -1328,25 +1399,25 @@
     </row>
     <row r="20" spans="1:8" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>9</v>
@@ -1354,25 +1425,25 @@
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>9</v>
@@ -1380,59 +1451,160 @@
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>36</v>
+        <v>127</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>130</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2428,8 +2600,13 @@
     <hyperlink ref="G20" r:id="rId18" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
     <hyperlink ref="G21" r:id="rId19" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
     <hyperlink ref="G22" r:id="rId20" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
+    <hyperlink ref="G26" r:id="rId21" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
+    <hyperlink ref="G23" r:id="rId24" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{B8CBEA9D-EA4B-4DD3-AD3F-03826F3A6997}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId21"/>
+  <pageSetup orientation="landscape" r:id="rId26"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E41156-E9AC-4A1F-A188-E4729D85D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC3D18-F85F-4FD7-8FB4-71C22B6B31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="146">
   <si>
     <t>Catégorie</t>
   </si>
@@ -518,6 +518,9 @@
   <si>
     <t xml:space="preserve">https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools
 </t>
+  </si>
+  <si>
+    <t>Terminé</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +602,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -620,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,6 +678,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1029,8 +1041,8 @@
       <c r="G5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
+      <c r="H5" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,8 +1275,8 @@
       <c r="G14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>9</v>
+      <c r="H14" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC3D18-F85F-4FD7-8FB4-71C22B6B31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D0CAAC-21B2-491C-ACCC-CB82791A4471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1067,8 +1067,8 @@
       <c r="G6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
+      <c r="H6" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,8 +1093,8 @@
       <c r="G7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>9</v>
+      <c r="H7" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,8 +1171,8 @@
       <c r="G10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>9</v>
+      <c r="H10" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1197,8 +1197,8 @@
       <c r="G11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
+      <c r="H11" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,8 +1353,8 @@
       <c r="G17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>9</v>
+      <c r="H17" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D0CAAC-21B2-491C-ACCC-CB82791A4471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F6B51-CAAF-4F5A-9F45-EEA3B38D32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1535,8 +1535,8 @@
       <c r="G24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>9</v>
+      <c r="H24" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1561,8 +1561,8 @@
       <c r="G25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>9</v>
+      <c r="H25" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F6B51-CAAF-4F5A-9F45-EEA3B38D32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3F638-CA5D-4449-9BDA-1941CE98547B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
   <si>
     <t>Catégorie</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Optimisation/Seo</t>
   </si>
   <si>
-    <t xml:space="preserve">Manque de suivis pour savoir des informations sur les visiteurs du site </t>
-  </si>
-  <si>
     <t>Optiminisation</t>
   </si>
   <si>
@@ -127,10 +124,6 @@
   </si>
   <si>
     <t>Manque d'effet visuel pour l'expérience utilisateur lors du survol de la souris pour la barre de navigation</t>
-  </si>
-  <si>
-    <t>Manque d'outil de suivis
- pour collecté des informations des visiteurs du site afin d'amélioré le site</t>
   </si>
   <si>
     <t>Les liens externe présenté en pied de page ne présente peu d'intérét et peu même pénalisé dans le référencement google</t>
@@ -182,10 +175,6 @@
     <t>Au-delà du format mobile la barre de navigation n'est pas accessible</t>
   </si>
   <si>
-    <t>Utilisé des outil de suivis
- telle que google analytique pour collecter des informations pertinent</t>
-  </si>
-  <si>
     <t xml:space="preserve">A la page contact, la barre de navigation n'est pas entierement  visible </t>
   </si>
   <si>
@@ -308,12 +297,6 @@
 </t>
   </si>
   <si>
-    <t>Intégré google analytique dans code du site</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5604431-installez-les-bons-outils</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les marques sémantique 
 permette de donner du sens à du code pour le moteur de recherche </t>
   </si>
@@ -497,9 +480,6 @@
     <t>Utiliser une bone valeur de la propriété "padding-left" permet l'utilisation de ce bout de code</t>
   </si>
   <si>
-    <t>Remplacé la propriété "constant" par "env"</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/CSS/env
 </t>
   </si>
@@ -507,27 +487,32 @@
     <t>Réduire le code JavaScript</t>
   </si>
   <si>
-    <t>Faire en sorte de supprimer des espaces et des bouts de code qui ne serve pas au site permet d'augmenter les performances de la page</t>
-  </si>
-  <si>
-    <t>Minimaliser le code JavaScript afin d'optimiser la page du site et d'avoir un code plus "propre"</t>
-  </si>
-  <si>
-    <t>Enlever les espaces et des boues de code inutilisé ou redondant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools
-</t>
-  </si>
-  <si>
     <t>Terminé</t>
+  </si>
+  <si>
+    <t>Supprimer la propriété erronée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte de supprimer des espaces et des bouts de code qui ne serve pas au site permet d'augmenter les performances de la page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimaliser le code JavaScript afin d'optimiser la page du site et d'avoir un code plus "propre"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlever les espaces et des boues de code inutilisé ou redondant
+</t>
+  </si>
+  <si>
+    <t>https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,12 +541,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -598,13 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,9 +606,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,22 +625,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -670,17 +646,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -971,25 +959,25 @@
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -997,25 +985,25 @@
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1023,103 +1011,103 @@
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>51</v>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>52</v>
+      <c r="G6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>55</v>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>53</v>
+      <c r="G7" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>57</v>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1127,25 +1115,25 @@
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1153,77 +1141,77 @@
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>65</v>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>64</v>
+      <c r="G10" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>68</v>
+      <c r="G11" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>72</v>
+      <c r="E12" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1231,25 +1219,25 @@
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>75</v>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1257,77 +1245,77 @@
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>80</v>
+      <c r="C14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>81</v>
+      <c r="G14" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>82</v>
+      <c r="C15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="17" t="s">
+    <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1335,155 +1323,155 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>91</v>
+      <c r="B17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>92</v>
+      <c r="G17" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>96</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>101</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1491,129 +1479,115 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>9</v>
+      <c r="G23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>129</v>
+      <c r="C24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>126</v>
+      <c r="G24" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>133</v>
+      <c r="B25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>134</v>
+      <c r="G25" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>124</v>
+      <c r="B26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2604,21 +2578,20 @@
     <hyperlink ref="G12" r:id="rId10" xr:uid="{248A73AB-F1F2-46F8-A066-C5DE03FBF4B7}"/>
     <hyperlink ref="G13" r:id="rId11" xr:uid="{B7A8EFD4-05AD-4DAD-924D-569984F0E4D4}"/>
     <hyperlink ref="G14" r:id="rId12" xr:uid="{A2449498-7FF1-4685-B411-7027DF86385D}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{C33C43A3-3405-4C1B-B9C7-1FCBD18284DC}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
-    <hyperlink ref="G17" r:id="rId15" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
-    <hyperlink ref="G18" r:id="rId16" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
-    <hyperlink ref="G19" r:id="rId17" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
-    <hyperlink ref="G20" r:id="rId18" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
-    <hyperlink ref="G21" r:id="rId19" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
-    <hyperlink ref="G22" r:id="rId20" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
-    <hyperlink ref="G26" r:id="rId21" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
-    <hyperlink ref="G25" r:id="rId23" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
-    <hyperlink ref="G23" r:id="rId24" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
-    <hyperlink ref="G27" r:id="rId25" xr:uid="{B8CBEA9D-EA4B-4DD3-AD3F-03826F3A6997}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
+    <hyperlink ref="G17" r:id="rId14" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
+    <hyperlink ref="G19" r:id="rId16" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
+    <hyperlink ref="G22" r:id="rId19" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
+    <hyperlink ref="G26" r:id="rId20" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
+    <hyperlink ref="G23" r:id="rId23" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
+    <hyperlink ref="G16" r:id="rId24" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId26"/>
+  <pageSetup orientation="landscape" r:id="rId25"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3F638-CA5D-4449-9BDA-1941CE98547B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FF5E1-82E7-4C38-9D4A-CE079A904A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,16 +346,10 @@
 </t>
   </si>
   <si>
-    <t>Chargement de script javascritpt non pertinent</t>
-  </si>
-  <si>
     <t>Lors du chargement d'une page il est  possible qu'il y ait des ressources de fichier qui se charge et qui ne sont pas utilisés, elle consomme donc des ressources</t>
   </si>
   <si>
     <t xml:space="preserve">Enlever les ressources qui ne sont pas nécessaire pour le chargement de la page </t>
-  </si>
-  <si>
-    <t>Enlever les liens javaScript inutilisé</t>
   </si>
   <si>
     <t xml:space="preserve">https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools#which-urls-get-flagged-as-render-blocking-resources
@@ -506,6 +500,12 @@
   </si>
   <si>
     <t>https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Chargement de script javascritpt/Css non pertinent</t>
+  </si>
+  <si>
+    <t>Enlever les liens javaScript/Css inutilisé</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,12 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -888,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1024,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,7 +1050,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,7 +1076,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>63</v>
@@ -1186,7 +1180,7 @@
         <v>65</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1264,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,26 +1288,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>9</v>
@@ -1342,7 +1336,7 @@
         <v>87</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,8 +1361,8 @@
       <c r="G18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>9</v>
+      <c r="H18" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,48 +1370,48 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E20" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>9</v>
@@ -1425,25 +1419,25 @@
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="E21" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>9</v>
@@ -1451,25 +1445,25 @@
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>9</v>
@@ -1480,25 +1474,25 @@
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,22 +1503,22 @@
         <v>25</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,25 +1526,25 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1558,22 +1552,22 @@
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>9</v>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FF5E1-82E7-4C38-9D4A-CE079A904A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9B60C-05CC-40CA-989E-AE1F004C9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
   <si>
     <t>Catégorie</t>
   </si>
@@ -506,6 +506,35 @@
   </si>
   <si>
     <t>Enlever les liens javaScript/Css inutilisé</t>
+  </si>
+  <si>
+    <t>En format mobile , le font-size est trop petit</t>
+  </si>
+  <si>
+    <t>https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Mettre une taille de font-size supérieur à 12px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les font-sizes en format mobile doit avoir une taille supérieur ou égal à 12px afin de permettre une bonne visibilité </t>
+  </si>
+  <si>
+    <t>Accessibilité/Seo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bouton "scrollToTop" n'est pas visible en format mobile et ne fonctionne pas
+</t>
+  </si>
+  <si>
+    <t>Si le bouton "scrollToTop" n'est pas visible et qui ne marche pas, alors cette fonctionnalité devient inutile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/links-crawlable?visit_id=638019622450014874-1162045236&amp;rd=1
+</t>
+  </si>
+  <si>
+    <t>En utilisant la balise &lt;a&gt; la proprièté utilisé est "href" et non "onClick"</t>
   </si>
 </sst>
 </file>
@@ -882,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -997,8 +1026,8 @@
       <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>9</v>
+      <c r="H4" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,8 +1442,8 @@
       <c r="G20" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>9</v>
+      <c r="H20" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,18 +1603,55 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="18" t="s">
+      <c r="E27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2584,8 +2650,10 @@
     <hyperlink ref="G25" r:id="rId22" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
     <hyperlink ref="G23" r:id="rId23" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
     <hyperlink ref="G16" r:id="rId24" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{60306C71-67C3-4113-8F2A-2BC60E84A7A8}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId25"/>
+  <pageSetup orientation="landscape" r:id="rId27"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9B60C-05CC-40CA-989E-AE1F004C9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539027C-4FD7-4F12-BFD2-492F959DCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,8 +1156,8 @@
       <c r="G9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>9</v>
+      <c r="H9" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1648,8 +1648,8 @@
       <c r="G28" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>9</v>
+      <c r="H28" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539027C-4FD7-4F12-BFD2-492F959DCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D920AEF-222A-410A-8716-D3D1FEA973D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,8 +1000,8 @@
       <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>9</v>
+      <c r="H3" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>31</v>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D920AEF-222A-410A-8716-D3D1FEA973D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B85B5D-02FA-45C3-9309-2E4A0377DD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
   <si>
     <t>Catégorie</t>
   </si>
@@ -256,19 +256,6 @@
 de mot clé et le mettre dans une balise méta keywords</t>
   </si>
   <si>
-    <t>La description des images est similaire les unes des autres</t>
-  </si>
-  <si>
-    <t>Des équivalents textuelles doit être fournit pour des élements non textuelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplir la description des images de manière précise 
-</t>
-  </si>
-  <si>
-    <t>Pour chaque image il faut avoir sa description textuelle afin de permettre à un grand nombre de personne de comprendre le site</t>
-  </si>
-  <si>
     <t>Les balises label permette de faire comprendre à l'utilisateur comment bien remplire le formulaire sans problème</t>
   </si>
   <si>
@@ -535,6 +522,10 @@
   </si>
   <si>
     <t>En utilisant la balise &lt;a&gt; la proprièté utilisé est "href" et non "onClick"</t>
+  </si>
+  <si>
+    <t>Terminé partiellement:
+Les mises à jour ont été faites mais, les vulnérabilités sont encore présentes. Il faudra mettre les mises à jour majeur et donc une remodelisation du code source pour ne plus avoir de vulnérabilité</t>
   </si>
 </sst>
 </file>
@@ -585,7 +576,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,9 +667,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -692,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,8 +997,8 @@
       <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>133</v>
+      <c r="H3" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,8 +1023,8 @@
       <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>133</v>
+      <c r="H4" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,8 +1049,8 @@
       <c r="G5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>133</v>
+      <c r="H5" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,8 +1075,8 @@
       <c r="G6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>133</v>
+      <c r="H6" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,8 +1101,8 @@
       <c r="G7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>133</v>
+      <c r="H7" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1121,7 +1118,7 @@
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1131,7 +1128,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,8 +1153,8 @@
       <c r="G9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>133</v>
+      <c r="H9" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,8 +1179,8 @@
       <c r="G10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>133</v>
+      <c r="H10" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>63</v>
@@ -1208,70 +1205,70 @@
       <c r="G11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>133</v>
+      <c r="H11" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>69</v>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1286,86 +1283,86 @@
       <c r="G14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>133</v>
+      <c r="H14" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>138</v>
+      <c r="G16" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="C17" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="15" t="s">
         <v>86</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>133</v>
+        <v>88</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1370,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>89</v>
@@ -1381,83 +1378,83 @@
       <c r="D18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>91</v>
+      <c r="E18" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>140</v>
+        <v>95</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>133</v>
+        <v>97</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="17" t="s">
         <v>104</v>
       </c>
+      <c r="C21" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="D21" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>106</v>
@@ -1469,67 +1466,67 @@
         <v>107</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>120</v>
@@ -1544,114 +1541,89 @@
         <v>12</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>117</v>
+      <c r="A26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="B27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>143</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>133</v>
+      <c r="G27" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
+    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2635,25 +2607,24 @@
     <hyperlink ref="G9" r:id="rId7" xr:uid="{5E456B86-3C34-4175-A757-63E7E362D17D}"/>
     <hyperlink ref="G10" r:id="rId8" location=":~:text=un%20FOOTER%20est%20le%20pied,des%20pages%20d'un%20site_x000a_" xr:uid="{BFAA9670-FB8C-4481-9765-72A13F68A7AD}"/>
     <hyperlink ref="G11" r:id="rId9" xr:uid="{7E483DC4-BDE5-488B-BED2-154BBC1F5E83}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{248A73AB-F1F2-46F8-A066-C5DE03FBF4B7}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{B7A8EFD4-05AD-4DAD-924D-569984F0E4D4}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{A2449498-7FF1-4685-B411-7027DF86385D}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
-    <hyperlink ref="G17" r:id="rId14" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
-    <hyperlink ref="G19" r:id="rId16" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
-    <hyperlink ref="G22" r:id="rId19" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
-    <hyperlink ref="G26" r:id="rId20" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
-    <hyperlink ref="G25" r:id="rId22" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
-    <hyperlink ref="G23" r:id="rId23" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
-    <hyperlink ref="G16" r:id="rId24" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
-    <hyperlink ref="G27" r:id="rId25" xr:uid="{60306C71-67C3-4113-8F2A-2BC60E84A7A8}"/>
-    <hyperlink ref="G28" r:id="rId26" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{B7A8EFD4-05AD-4DAD-924D-569984F0E4D4}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{A2449498-7FF1-4685-B411-7027DF86385D}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
+    <hyperlink ref="G16" r:id="rId13" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
+    <hyperlink ref="G18" r:id="rId15" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
+    <hyperlink ref="G21" r:id="rId18" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
+    <hyperlink ref="G25" r:id="rId19" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
+    <hyperlink ref="G22" r:id="rId22" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
+    <hyperlink ref="G15" r:id="rId23" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{60306C71-67C3-4113-8F2A-2BC60E84A7A8}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId27"/>
+  <pageSetup orientation="landscape" r:id="rId26"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B85B5D-02FA-45C3-9309-2E4A0377DD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5DCE16-1A56-449A-AC03-60B4E47C7543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1231,8 +1231,8 @@
       <c r="G12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>9</v>
+      <c r="H12" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,8 +1283,8 @@
       <c r="G14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>9</v>
+      <c r="H14" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5DCE16-1A56-449A-AC03-60B4E47C7543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94263656-8A8C-4DBD-9418-B2217E1A8753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Catégorie</t>
   </si>
@@ -526,6 +526,37 @@
   <si>
     <t>Terminé partiellement:
 Les mises à jour ont été faites mais, les vulnérabilités sont encore présentes. Il faudra mettre les mises à jour majeur et donc une remodelisation du code source pour ne plus avoir de vulnérabilité</t>
+  </si>
+  <si>
+    <t>Le texte n'est pas visible lors du chargement de la police d'écriture</t>
+  </si>
+  <si>
+    <t>Si le chargement de la police d'écriture prend du temp alors le texte ne sera pas affiché</t>
+  </si>
+  <si>
+    <t>Afin d'afficher du texte et evité qu'il soit invisible lors du chargement de la police d'écriture il faut placer "font-display: swap;" dans le css contenant les polices d'écriture</t>
+  </si>
+  <si>
+    <t>https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre "font-display: swap;" dans le css portant la police d'écriture </t>
+  </si>
+  <si>
+    <t>Le chargement des fichiers scripts js bloque le chargement de la page html</t>
+  </si>
+  <si>
+    <t>Quand les fichiers js sont analysés par le navigateur web il arrête le chargement de la page html ceux qui ralentissent donc les performances du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demander au navigateur de charger le script js en arrière plan </t>
+  </si>
+  <si>
+    <t>Mettre l'attribut "defer" afin de dans la balise "link" de la partie head du code html</t>
   </si>
 </sst>
 </file>
@@ -908,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1309,8 +1340,8 @@
       <c r="G15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>9</v>
+      <c r="H15" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1594,7 @@
       <c r="E25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -1623,8 +1654,58 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2623,8 +2704,10 @@
     <hyperlink ref="G15" r:id="rId23" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
     <hyperlink ref="G26" r:id="rId24" xr:uid="{60306C71-67C3-4113-8F2A-2BC60E84A7A8}"/>
     <hyperlink ref="G27" r:id="rId25" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{ECB61A62-23C9-4AD7-8D84-B064B28D4109}"/>
+    <hyperlink ref="G29" r:id="rId27" xr:uid="{A312B76B-4A89-4319-868E-94433C816862}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId26"/>
+  <pageSetup orientation="landscape" r:id="rId28"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94263656-8A8C-4DBD-9418-B2217E1A8753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E375C55-F50D-4193-BBD6-F09E542D7A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t>Catégorie</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>(SEO ou accessibilité?)</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
   <si>
     <t>Mobile</t>
@@ -557,6 +554,38 @@
   </si>
   <si>
     <t>Mettre l'attribut "defer" afin de dans la balise "link" de la partie head du code html</t>
+  </si>
+  <si>
+    <t>Ne pas avoir des images plus petite pour les formats mobile</t>
+  </si>
+  <si>
+    <t>Certaine images ont des formats trop volumineux pour le format mobile qui ralentie donc le chargement de la page web</t>
+  </si>
+  <si>
+    <t>Avoir des images ayant des formats différents pour permettre au navigateur de sélectionner le plus approprié et de réduire le temp de chargement de la page</t>
+  </si>
+  <si>
+    <t>Avoir des format d'image plus petite</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Responsive_images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/uses-long-cache-ttl/?utm_source=lighthouse&amp;utm_medium=devtools
+</t>
+  </si>
+  <si>
+    <t>La mise en place du cache des ressources du site</t>
+  </si>
+  <si>
+    <t>Sauvegarder des ressources du site en local permet temp d'attente plus court lors du chargement du site</t>
+  </si>
+  <si>
+    <t>Configurer le serveur pour pourvoir gérait le stockage de données</t>
+  </si>
+  <si>
+    <t>Abandonné 
+Impossible d'avoir accès au serveur</t>
   </si>
 </sst>
 </file>
@@ -628,12 +657,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,6 +664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,11 +741,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -728,6 +763,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1008,706 +1048,753 @@
     </row>
     <row r="3" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>129</v>
+      <c r="H3" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>129</v>
+      <c r="H4" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>129</v>
+      <c r="H6" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>129</v>
+      <c r="H8" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>129</v>
+      <c r="H9" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>129</v>
+      <c r="H10" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>129</v>
+      <c r="H11" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>129</v>
+      <c r="H12" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>129</v>
+      <c r="H13" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>129</v>
+      <c r="H14" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>129</v>
+      <c r="H16" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>129</v>
+      <c r="H17" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>129</v>
+      <c r="H18" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>129</v>
+      <c r="H19" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>146</v>
+      <c r="H20" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>129</v>
+      <c r="H21" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>129</v>
+      <c r="H22" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>129</v>
+      <c r="H24" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="H25" s="17" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>129</v>
+      <c r="H27" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="E28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>129</v>
+      <c r="H28" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="H29" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2706,8 +2793,10 @@
     <hyperlink ref="G27" r:id="rId25" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
     <hyperlink ref="G28" r:id="rId26" xr:uid="{ECB61A62-23C9-4AD7-8D84-B064B28D4109}"/>
     <hyperlink ref="G29" r:id="rId27" xr:uid="{A312B76B-4A89-4319-868E-94433C816862}"/>
+    <hyperlink ref="G30" r:id="rId28" xr:uid="{E807E049-42AD-4101-9474-9AB0243C4CB2}"/>
+    <hyperlink ref="G31" r:id="rId29" xr:uid="{2B8EC863-D198-4505-962E-434A0D52EB68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId28"/>
+  <pageSetup orientation="landscape" r:id="rId30"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E375C55-F50D-4193-BBD6-F09E542D7A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4CA298-F834-414B-ABB2-AA444D2CDADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,12 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1779,19 +1773,19 @@
       <c r="B31" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="8" t="s">
         <v>163</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="20" t="s">
         <v>165</v>
       </c>
     </row>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4CA298-F834-414B-ABB2-AA444D2CDADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F0740-910C-4DA5-8226-E0B76629349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
   <si>
     <t>Catégorie</t>
   </si>
@@ -553,9 +553,6 @@
     <t xml:space="preserve">Demander au navigateur de charger le script js en arrière plan </t>
   </si>
   <si>
-    <t>Mettre l'attribut "defer" afin de dans la balise "link" de la partie head du code html</t>
-  </si>
-  <si>
     <t>Ne pas avoir des images plus petite pour les formats mobile</t>
   </si>
   <si>
@@ -586,6 +583,13 @@
   <si>
     <t>Abandonné 
 Impossible d'avoir accès au serveur</t>
+  </si>
+  <si>
+    <t>Mettre l'attribut "defer"   dans  la balise "script" et préload dans la balise  "link" de la partie head du code html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -973,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1732,7 @@
         <v>154</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>11</v>
@@ -1745,22 +1749,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>128</v>
@@ -1771,25 +1775,30 @@
         <v>14</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="E31" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F0740-910C-4DA5-8226-E0B76629349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9975CC71-A07D-46F5-8FC8-0C1D586CD65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Les liens externe présenté en pied de page ne présente peu d'intérét et peu même pénalisé dans le référencement google</t>
   </si>
   <si>
-    <t>Manque de marque sémantique</t>
-  </si>
-  <si>
     <t>Les couleurs d'arrière plan et d'objet/texte en premier plan n'ont pas un contrast suffisant</t>
   </si>
   <si>
@@ -281,20 +278,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Les marques sémantique 
-permette de donner du sens à du code pour le moteur de recherche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crée des marques sémantique permet de mieux interprété sont site auprès des moteurs de recherche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouté des balises sémantique pour mieux se faire comprendre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ronan-hello.fr/series/html/balises-semantiques-html
-</t>
-  </si>
-  <si>
     <t>La valeur "défault" de la balise HTML</t>
   </si>
   <si>
@@ -590,6 +573,22 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images ne sont pas compressées
+</t>
+  </si>
+  <si>
+    <t>https://guersanguillaume.com/compresser-image-en-ligne/#:~:text=La%20compression%20d'image%20est,espace%20ou%20la%20transmettre%20rapidement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas compresser ces images alourdit le temps de chargement du site </t>
+  </si>
+  <si>
+    <t>Avoir des images compresser permet d'avoir des images plus légères et donc d'avoir un temps de chargement plus court</t>
+  </si>
+  <si>
+    <t>Optimisé ses images</t>
   </si>
 </sst>
 </file>
@@ -977,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,25 +1048,25 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,22 +1077,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,25 +1100,25 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,22 +1129,22 @@
         <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,19 +1158,19 @@
         <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,19 +1184,19 @@
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,22 +1207,22 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,19 +1236,19 @@
         <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,48 +1311,48 @@
         <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,25 +1360,25 @@
         <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,25 +1386,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,25 +1412,25 @@
         <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,103 +1438,103 @@
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,25 +1542,25 @@
         <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,22 +1571,22 @@
         <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,25 +1594,25 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,25 +1620,25 @@
         <v>15</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,49 +1646,49 @@
         <v>20</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,25 +1696,25 @@
         <v>15</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,25 +1722,25 @@
         <v>14</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,25 +1748,25 @@
         <v>14</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,28 +1774,28 @@
         <v>14</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2779,7 @@
     <hyperlink ref="G11" r:id="rId9" xr:uid="{7E483DC4-BDE5-488B-BED2-154BBC1F5E83}"/>
     <hyperlink ref="G12" r:id="rId10" xr:uid="{B7A8EFD4-05AD-4DAD-924D-569984F0E4D4}"/>
     <hyperlink ref="G13" r:id="rId11" xr:uid="{A2449498-7FF1-4685-B411-7027DF86385D}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
+    <hyperlink ref="G14" r:id="rId12" location=":~:text=La%20compression%20d'image%20est,espace%20ou%20la%20transmettre%20rapidement." xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
     <hyperlink ref="G16" r:id="rId13" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
     <hyperlink ref="G17" r:id="rId14" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
     <hyperlink ref="G18" r:id="rId15" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9975CC71-A07D-46F5-8FC8-0C1D586CD65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2394E9E6-D15E-4CF2-86F6-DAE79EF9B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
   <si>
     <t>Catégorie</t>
   </si>
@@ -166,18 +166,6 @@
     <t xml:space="preserve">Corrigé le code </t>
   </si>
   <si>
-    <t>Au-delà du format mobile la barre de navigation n'est pas accessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A la page contact, la barre de navigation n'est pas entierement  visible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tout ce qui ne doit pas être visible à l'écran à un instant T doit être complétement invisible </t>
-  </si>
-  <si>
-    <t>C'est balise sont importantes pour donné envié au visiteurà se rendre sur le site car ce sont les premières phrase à apparaître sur les résultats du moteur de recherche</t>
-  </si>
-  <si>
     <t>Bien pensé à les écrire
 pour les utilisateur d'abord puis pour l'optimisation des moteurs de recherche</t>
   </si>
@@ -478,9 +466,6 @@
     <t>En format mobile , le font-size est trop petit</t>
   </si>
   <si>
-    <t>https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
     <t>Mettre une taille de font-size supérieur à 12px</t>
   </si>
   <si>
@@ -589,13 +574,26 @@
   </si>
   <si>
     <t>Optimisé ses images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servez les ressources statiques avec une politique de cache efficace
+</t>
+  </si>
+  <si>
+    <t>Les métas description font partie du référencement et informent les moteurs de recherche ainsi que les internautes sur le contenu d'une page web</t>
+  </si>
+  <si>
+    <t>Si un ratio d'écran est de  4.5:1 alors la taille du texte doit être de 18 point minimum</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,17 +614,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -635,6 +622,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -654,12 +646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -672,7 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +687,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -703,54 +695,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1037,766 +1029,760 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="B29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="G29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="B30" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>123</v>
+      <c r="G30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2770,35 +2756,34 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{8DBE3476-EBBB-46D1-AEFB-1B9EBF6DBBDC}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{A1F79C4C-F498-4476-8AC0-7E0C99C97CB3}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{199B1C0D-000B-4FCE-ABFC-4E3CB43CF65A}"/>
-    <hyperlink ref="G6" r:id="rId4" location="/id/r-5604747_x000a_" xr:uid="{B0A1CCBE-FB90-4290-8390-D6ABDA1A8447}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{44CB1379-2E3F-4F1B-A66A-74DFF65FBF53}"/>
-    <hyperlink ref="G8" r:id="rId6" location="/id/r-1610817_x000a_" xr:uid="{B88CAAEC-E69C-4D36-8319-BF017046D227}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{5E456B86-3C34-4175-A757-63E7E362D17D}"/>
-    <hyperlink ref="G10" r:id="rId8" location=":~:text=un%20FOOTER%20est%20le%20pied,des%20pages%20d'un%20site_x000a_" xr:uid="{BFAA9670-FB8C-4481-9765-72A13F68A7AD}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{7E483DC4-BDE5-488B-BED2-154BBC1F5E83}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{B7A8EFD4-05AD-4DAD-924D-569984F0E4D4}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{A2449498-7FF1-4685-B411-7027DF86385D}"/>
-    <hyperlink ref="G14" r:id="rId12" location=":~:text=La%20compression%20d'image%20est,espace%20ou%20la%20transmettre%20rapidement." xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
-    <hyperlink ref="G16" r:id="rId13" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
-    <hyperlink ref="G18" r:id="rId15" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
-    <hyperlink ref="G21" r:id="rId18" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
-    <hyperlink ref="G25" r:id="rId19" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
-    <hyperlink ref="G22" r:id="rId22" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
-    <hyperlink ref="G15" r:id="rId23" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
-    <hyperlink ref="G26" r:id="rId24" xr:uid="{60306C71-67C3-4113-8F2A-2BC60E84A7A8}"/>
-    <hyperlink ref="G27" r:id="rId25" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
-    <hyperlink ref="G28" r:id="rId26" xr:uid="{ECB61A62-23C9-4AD7-8D84-B064B28D4109}"/>
-    <hyperlink ref="G29" r:id="rId27" xr:uid="{A312B76B-4A89-4319-868E-94433C816862}"/>
-    <hyperlink ref="G30" r:id="rId28" xr:uid="{E807E049-42AD-4101-9474-9AB0243C4CB2}"/>
-    <hyperlink ref="G31" r:id="rId29" xr:uid="{2B8EC863-D198-4505-962E-434A0D52EB68}"/>
+    <hyperlink ref="G6" r:id="rId3" location="/id/r-5604747_x000a_" xr:uid="{B0A1CCBE-FB90-4290-8390-D6ABDA1A8447}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{44CB1379-2E3F-4F1B-A66A-74DFF65FBF53}"/>
+    <hyperlink ref="G8" r:id="rId5" location="/id/r-1610817_x000a_" xr:uid="{B88CAAEC-E69C-4D36-8319-BF017046D227}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{5E456B86-3C34-4175-A757-63E7E362D17D}"/>
+    <hyperlink ref="G10" r:id="rId7" location=":~:text=un%20FOOTER%20est%20le%20pied,des%20pages%20d'un%20site_x000a_" xr:uid="{BFAA9670-FB8C-4481-9765-72A13F68A7AD}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{7E483DC4-BDE5-488B-BED2-154BBC1F5E83}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{B7A8EFD4-05AD-4DAD-924D-569984F0E4D4}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{A2449498-7FF1-4685-B411-7027DF86385D}"/>
+    <hyperlink ref="G14" r:id="rId11" location=":~:text=La%20compression%20d'image%20est,espace%20ou%20la%20transmettre%20rapidement." xr:uid="{44583BB6-7D03-4F8F-A72C-6BF572D5E998}"/>
+    <hyperlink ref="G16" r:id="rId12" location="textprocessing_x000a_" xr:uid="{8E89AE0D-07E5-414B-8EEE-1AE6D25F795F}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{83C95C19-4E81-42CC-97BA-F369281885A6}"/>
+    <hyperlink ref="G18" r:id="rId14" location="which-urls-get-flagged-as-render-blocking-resources_x000a_" xr:uid="{534C317F-A2DE-4DDF-A88A-2F5DFE36CF01}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{FAD74284-6C46-4FF2-8CAB-49F358BBA0B8}"/>
+    <hyperlink ref="G20" r:id="rId16" xr:uid="{974BECEB-2186-4D94-BCD1-C8F6556B7C4F}"/>
+    <hyperlink ref="G21" r:id="rId17" location="images-without-dimensions_x000a_" xr:uid="{2F13076B-4955-463C-89AE-8FE4A85F60BF}"/>
+    <hyperlink ref="G25" r:id="rId18" xr:uid="{B875FD14-B92A-4865-B62C-09E4EEA2B445}"/>
+    <hyperlink ref="G23" r:id="rId19" xr:uid="{A375CAF4-0C05-4978-B637-D20B04C02BC3}"/>
+    <hyperlink ref="G24" r:id="rId20" xr:uid="{8BD04CAF-82D4-43D0-BFE5-24C6FAF777E1}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{C5271984-11E9-48E4-AB00-A6D74BC67287}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{9B570370-0C93-421B-8232-06B1C0DB7FFD}"/>
+    <hyperlink ref="G26" r:id="rId23" xr:uid="{60306C71-67C3-4113-8F2A-2BC60E84A7A8}"/>
+    <hyperlink ref="G27" r:id="rId24" xr:uid="{7E3CF28D-B27F-4FCA-968A-BA87D4A11764}"/>
+    <hyperlink ref="G28" r:id="rId25" xr:uid="{ECB61A62-23C9-4AD7-8D84-B064B28D4109}"/>
+    <hyperlink ref="G29" r:id="rId26" xr:uid="{A312B76B-4A89-4319-868E-94433C816862}"/>
+    <hyperlink ref="G30" r:id="rId27" xr:uid="{E807E049-42AD-4101-9474-9AB0243C4CB2}"/>
+    <hyperlink ref="G5" r:id="rId28" xr:uid="{2B8EC863-D198-4505-962E-434A0D52EB68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId30"/>
+  <pageSetup orientation="landscape" r:id="rId29"/>
 </worksheet>
 </file>
--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2394E9E6-D15E-4CF2-86F6-DAE79EF9B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F44BF1-C4D8-429A-91A1-08D168F72CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Les images textes ne se redimensionne pas bien sur les différent format 
-</t>
-  </si>
-  <si>
     <t>Desktop/Tablette/Mobile</t>
   </si>
   <si>
@@ -90,40 +86,19 @@
 entre la barre de navigation de la page d'accueil et de la page contact</t>
   </si>
   <si>
-    <t>Les liens externe sont présenté sur la page d'accueil dans la balise footer</t>
-  </si>
-  <si>
-    <t>Le nommage du nom "page2" sur l'en-tête de la navigation et de sa barre url</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seo/Optimisation </t>
   </si>
   <si>
     <t>Seo</t>
   </si>
   <si>
-    <t>Les balises label ne sont pas connecté avec leurs balises input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les liens internes en javascript dans la page contact ne sont pas accessible </t>
-  </si>
-  <si>
-    <t>L'utilisation de la proprièté "max-device-with" dans la feuille Css</t>
-  </si>
-  <si>
     <t>Optimisation/Seo</t>
   </si>
   <si>
     <t>Optiminisation</t>
   </si>
   <si>
-    <t>Un des critères utilisé par googler pour son référencement et aussi pour la compréhension des utilisateurs du site</t>
-  </si>
-  <si>
     <t>Manque d'effet visuel pour l'expérience utilisateur lors du survol de la souris pour la barre de navigation</t>
-  </si>
-  <si>
-    <t>Les liens externe présenté en pied de page ne présente peu d'intérét et peu même pénalisé dans le référencement google</t>
   </si>
   <si>
     <t>Les couleurs d'arrière plan et d'objet/texte en premier plan n'ont pas un contrast suffisant</t>
@@ -144,18 +119,6 @@
 </t>
   </si>
   <si>
-    <t>En format mobile les images textes sont coupé, on ne 
-peut pas lire le texte entièrement et les images texte n'apporte aucune valeur ajouté pour le Seo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les textes sont toujours 
-écrit en html </t>
-  </si>
-  <si>
-    <t>Remplacé les
-images textes par des textes intégré dans le code html</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://hollypryce.com/text-images/
 </t>
   </si>
@@ -166,10 +129,6 @@
     <t xml:space="preserve">Corrigé le code </t>
   </si>
   <si>
-    <t>Bien pensé à les écrire
-pour les utilisateur d'abord puis pour l'optimisation des moteurs de recherche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remplire les balises meta description et title
 </t>
   </si>
@@ -180,40 +139,21 @@
   <si>
     <t xml:space="preserve">https://www.thoughtco.com/naming-html-files-3466503
 </t>
-  </si>
-  <si>
-    <t>Nommer les pages de manière cohérente, permet de mieux faire comprendre aux utilisateurs où il se trouve et aide par la même occasion les moteurs de recherche à savoir plus précisément de quoi le site parlé</t>
   </si>
   <si>
     <t>Nommer les pages de 
 façon cohérente</t>
   </si>
   <si>
-    <t xml:space="preserve">Lors d'un survol d'un object cliquable l'action de cette dernière doit changer l'apparence de ledite objet pour mieux faire comprendre à l'utilisateur l'action possible à faire </t>
-  </si>
-  <si>
-    <t>Modifier l'apparence des liens de la barre de 
-navigation lors du suvol de la souris</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605763-creez-des-apparences-dynamiques#/id/r-1610817
 </t>
   </si>
   <si>
-    <t xml:space="preserve">La mise en page du site correspond à la structure de base pour toute les autres pages du site. Elle   facilite donc la navigation des usager lors de leur visite et permet donc de se concentrer sur le contenu que propose le site </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.mtechnologie.fr/en-quoi-la-coherence-de-la-mise-en-page-est-elle-importante-pour-un-site-web-dentreprise/
 </t>
   </si>
   <si>
     <t>Lors de la création de nouvelle page de site, il faut que sa structure reste suffisamment cohérente pour ne pas gêner les visiteurs du site</t>
-  </si>
-  <si>
-    <t>Structuré la barre de navigation de la page conctact pour qu'elle soit similaire à celle de la page d'accueil</t>
-  </si>
-  <si>
-    <t>Le nouvelle algorithme de google permet d'identifier la pertinence des liens d'un site, il favorise donc la qualité des liens que sa quantité</t>
   </si>
   <si>
     <t xml:space="preserve">https://la-webeuse.com/lien-dans-le-footer/#:~:text=un%20FOOTER%20est%20le%20pied,des%20pages%20d'un%20site
@@ -224,12 +164,6 @@
  un rapport avec l'activité du site et qui s'intègre dans différents types d'articles</t>
   </si>
   <si>
-    <t>Les mots clé ne sont pas mis au bon endroit dans le site et peuvent même être intérprété par google comme une pratique black hat et qui peut donc pénaliser le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecrire des listes de mot hors d'une balise meta , sera interprété par google comme un bourrage de mot clé et sera sanctionné. Il est donc conseillé d'écrire comme si on s'adressait à une personne en donnant du sens à nos propos </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://smartkeyword.io/referencement-naturel-black-hat-seo/
 </t>
   </si>
@@ -238,9 +172,6 @@
 de mot clé et le mettre dans une balise méta keywords</t>
   </si>
   <si>
-    <t>Les balises label permette de faire comprendre à l'utilisateur comment bien remplire le formulaire sans problème</t>
-  </si>
-  <si>
     <t>Relier les balises labels
  avec leur balise input</t>
   </si>
@@ -249,19 +180,6 @@
 </t>
   </si>
   <si>
-    <t>La balise label est le moyen naturelle de définir une étiquette pour un widget de formulaire HTML</t>
-  </si>
-  <si>
-    <t>Les liens pour relier du code JavaScript à la page html ne sont pas exact et ne permet donc pas d'appliquer les fonctionner qui leur sont demander</t>
-  </si>
-  <si>
-    <t>Indiquer le bon chemin où se trouve le code en javaScript permet à la page html de l'utiliser correctement</t>
-  </si>
-  <si>
-    <t>Bien linker le code 
-javaScript</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://teamtreehouse.com/community/problems-linking-javascript-file-to-html-file
 </t>
   </si>
@@ -269,25 +187,11 @@
     <t>La valeur "défault" de la balise HTML</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans la balise html nous devons donner un tag de langage par défaut écrire un tag "default" n'a aucun sens </t>
-  </si>
-  <si>
     <t>Donner un langage par défaut pour un site permet de faire comprendre qu'on écrit du texte du langage par défaut</t>
   </si>
   <si>
-    <t>Donner la valeur du
- langage qu'on s'apprête à écrire ici "fr"</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.w3.org/International/techniques/authoring-html.en?open=language&amp;open=textprocessing#textprocessing
 </t>
-  </si>
-  <si>
-    <t>Le format des images présent sur le site</t>
-  </si>
-  <si>
-    <t>Selon les types de formats des images 
-le poids des images est susceptible d'être plus ou moins conséquente et donc peut ralentir le temp de traitement de la page</t>
   </si>
   <si>
     <t>Utilisé le format WebP 
@@ -304,9 +208,6 @@
     <t>Lors du chargement d'une page il est  possible qu'il y ait des ressources de fichier qui se charge et qui ne sont pas utilisés, elle consomme donc des ressources</t>
   </si>
   <si>
-    <t xml:space="preserve">Enlever les ressources qui ne sont pas nécessaire pour le chargement de la page </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools#which-urls-get-flagged-as-render-blocking-resources
 </t>
   </si>
@@ -315,12 +216,6 @@
   </si>
   <si>
     <t>Structure hiérarchique des balises h1 à h6</t>
-  </si>
-  <si>
-    <t>Structuré de manière ordonné les balises h1 à h6 permet non seulement on visiteur de comprendre l'architecture site mais aussi à aider les moteurs de recherche à trouver un site plus facilement</t>
-  </si>
-  <si>
-    <t>Bien structuré ses balises h1/h6</t>
   </si>
   <si>
     <t xml:space="preserve">Ordonné ses balises 
@@ -334,21 +229,6 @@
     <t>Optiminisation/Accessibilité</t>
   </si>
   <si>
-    <t>Inclure des librairies JavaScript où les vulnérabilité sont connue</t>
-  </si>
-  <si>
-    <t>Mettre des librairies
-JavaScript où les vulnérabilité sont connue, peut permettre à des gens malveillants de faire beaucoup de dégat pour l'entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire en sorte de mettre
-des librairies JavaScript à jour </t>
-  </si>
-  <si>
-    <t>Mettre à jour les 
-librairies JavaScript</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://web.dev/no-vulnerable-libraries/?utm_source=lighthouse&amp;utm_medium=devtools
 </t>
   </si>
@@ -356,9 +236,6 @@
     <t>Définir une taille pour les images</t>
   </si>
   <si>
-    <t>Le cls(cumulative Layout Shift) est le changement de mise en page lors d'une mise à échelle d'un site afin de crée une meilleur expérience utilisateur</t>
-  </si>
-  <si>
     <t>Donner une taille pour les images du site</t>
   </si>
   <si>
@@ -369,12 +246,6 @@
     <t>Définir une taille fixe à une image permet de donner un aspect propre au site</t>
   </si>
   <si>
-    <t>La non utilisation de balise type "aria-label"</t>
-  </si>
-  <si>
-    <t>Une balise div contenant des mots clé dans l'en-tête du site de la page d'accueil</t>
-  </si>
-  <si>
     <t>Les balises types "aria-label" permettent de donner plus de sens à un code, cela indique les parties non textuelles d'un site à des utilisateurs ayant des handicaps, il permet donc d'être plus accessible à un plus large public</t>
   </si>
   <si>
@@ -382,9 +253,6 @@
 </t>
   </si>
   <si>
-    <t>Utiliser des balises types "aria-label" pour des parties de sites non textuels et/ou qui manquerait de compréhension</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.aditus.io/aria/aria-label/
 </t>
   </si>
@@ -399,43 +267,17 @@
     <t>Remplacé l'ancienne propriété devenue obsolète par celle qui est reconnue par les normes du web</t>
   </si>
   <si>
-    <t xml:space="preserve">Utiliser les propriété "max-widht"/"min-width
-</t>
-  </si>
-  <si>
-    <t>Erreur de stockage de message dans le formulaire html</t>
-  </si>
-  <si>
-    <t>Pour pouvoir utiliser des donnés stocké en html dans du javascript, l'utilisation d'une syntaxte précise dans le code html est de mise.</t>
-  </si>
-  <si>
     <t>Stocker des donnés HTML avec la bonne syntaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">Utiliser la syntaxe "data" suivit de nom de la donné
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Learn/HTML/Howto/Use_data_attributes
 </t>
   </si>
   <si>
-    <t>Propriété "constant(safe-area-inset-left)" est erroné dans le code Css</t>
-  </si>
-  <si>
-    <t>L'utilisation de la propriété "padding-left: constant(safe-area-inset-left)" n'est pas une propriété de "padding-left" et donc ne peut pas être utilisé dans le code Css</t>
-  </si>
-  <si>
-    <t>Utiliser une bone valeur de la propriété "padding-left" permet l'utilisation de ce bout de code</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/CSS/env
 </t>
   </si>
   <si>
-    <t>Réduire le code JavaScript</t>
-  </si>
-  <si>
     <t>Terminé</t>
   </si>
   <si>
@@ -446,10 +288,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimaliser le code JavaScript afin d'optimiser la page du site et d'avoir un code plus "propre"
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enlever les espaces et des boues de code inutilisé ou redondant
 </t>
   </si>
@@ -457,21 +295,6 @@
     <t>https://web.dev/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t>Chargement de script javascritpt/Css non pertinent</t>
-  </si>
-  <si>
-    <t>Enlever les liens javaScript/Css inutilisé</t>
-  </si>
-  <si>
-    <t>En format mobile , le font-size est trop petit</t>
-  </si>
-  <si>
-    <t>Mettre une taille de font-size supérieur à 12px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les font-sizes en format mobile doit avoir une taille supérieur ou égal à 12px afin de permettre une bonne visibilité </t>
-  </si>
-  <si>
     <t>Accessibilité/Seo</t>
   </si>
   <si>
@@ -484,9 +307,6 @@
   <si>
     <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/links-crawlable?visit_id=638019622450014874-1162045236&amp;rd=1
 </t>
-  </si>
-  <si>
-    <t>En utilisant la balise &lt;a&gt; la proprièté utilisé est "href" et non "onClick"</t>
   </si>
   <si>
     <t>Terminé partiellement:
@@ -496,18 +316,9 @@
     <t>Le texte n'est pas visible lors du chargement de la police d'écriture</t>
   </si>
   <si>
-    <t>Si le chargement de la police d'écriture prend du temp alors le texte ne sera pas affiché</t>
-  </si>
-  <si>
-    <t>Afin d'afficher du texte et evité qu'il soit invisible lors du chargement de la police d'écriture il faut placer "font-display: swap;" dans le css contenant les polices d'écriture</t>
-  </si>
-  <si>
     <t>https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre "font-display: swap;" dans le css portant la police d'écriture </t>
-  </si>
-  <si>
     <t>Le chargement des fichiers scripts js bloque le chargement de la page html</t>
   </si>
   <si>
@@ -518,21 +329,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Demander au navigateur de charger le script js en arrière plan </t>
-  </si>
-  <si>
-    <t>Ne pas avoir des images plus petite pour les formats mobile</t>
-  </si>
-  <si>
-    <t>Certaine images ont des formats trop volumineux pour le format mobile qui ralentie donc le chargement de la page web</t>
-  </si>
-  <si>
-    <t>Avoir des images ayant des formats différents pour permettre au navigateur de sélectionner le plus approprié et de réduire le temp de chargement de la page</t>
-  </si>
-  <si>
-    <t>Avoir des format d'image plus petite</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Responsive_images</t>
   </si>
   <si>
@@ -541,9 +337,6 @@
   </si>
   <si>
     <t>La mise en place du cache des ressources du site</t>
-  </si>
-  <si>
-    <t>Sauvegarder des ressources du site en local permet temp d'attente plus court lors du chargement du site</t>
   </si>
   <si>
     <t>Configurer le serveur pour pourvoir gérait le stockage de données</t>
@@ -553,9 +346,6 @@
 Impossible d'avoir accès au serveur</t>
   </si>
   <si>
-    <t>Mettre l'attribut "defer"   dans  la balise "script" et préload dans la balise  "link" de la partie head du code html</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -573,9 +363,6 @@
     <t>Avoir des images compresser permet d'avoir des images plus légères et donc d'avoir un temps de chargement plus court</t>
   </si>
   <si>
-    <t>Optimisé ses images</t>
-  </si>
-  <si>
     <t xml:space="preserve">Servez les ressources statiques avec une politique de cache efficace
 </t>
   </si>
@@ -583,10 +370,222 @@
     <t>Les métas description font partie du référencement et informent les moteurs de recherche ainsi que les internautes sur le contenu d'une page web</t>
   </si>
   <si>
-    <t>Si un ratio d'écran est de  4.5:1 alors la taille du texte doit être de 18 point minimum</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>Sauvegarder des ressources du site en local permet d'avoir une attente plus courte lors du chargement du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images textes ne se redimensionnent pas bien sûr les différents formats
+</t>
+  </si>
+  <si>
+    <t>En format mobile les images textes sont coupées, on ne 
+peut pas lire le texte entièrement et les images textes n'apportent aucune valeur ajoutée pour le Seo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les textes sont toujours 
+écrit en HTML </t>
+  </si>
+  <si>
+    <t>Remplacez-les
+images textes par des textes intégrés dans le code HTML</t>
+  </si>
+  <si>
+    <t>Bien pensé à remplir les balises en pensant 
+pour les utilisateurs d'abord puis pour l'optimisation des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Le nommage du nom "page2" sur l'en-tête de la navigation et de sa barre URL</t>
+  </si>
+  <si>
+    <t>Nommé le nom de sa page est un des critères utilisé par google pour son référencement et aussi pour la compréhension des utilisateurs du site</t>
+  </si>
+  <si>
+    <t>Nommer les pages de manière cohérente, permet de mieux faire comprendre aux utilisateurs où il se trouve et aide par la même occasion les moteurs de recherche à savoir plus précisément de quoi le site parle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lors d'un survol d'un objet cliquable l'action de cette dernière doit changer l'apparence de l'édite objet pour mieux faire comprendre à l'utilisateur l'action possible à faire </t>
+  </si>
+  <si>
+    <t>Modifier l'apparence des liens de la barre de 
+navigation lors du survol de la souris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mise en page du site correspond à la structure de base pour toutes les autres pages du site. Elle   facilite donc la navigation des usagers lors de leur visite et permet donc de se concentrer sur le contenu que propose le site </t>
+  </si>
+  <si>
+    <t>Structurer la barre de navigation de la page contact pour qu'elle soit similaire à celle de la page d'accueil</t>
+  </si>
+  <si>
+    <t>Les liens externes sont présentés sur la page d'accueil dans la balise footer</t>
+  </si>
+  <si>
+    <t>Les liens externe présenté en pied de page ne présente peu d'intérêt et peu même pénalisé dans le référencement google</t>
+  </si>
+  <si>
+    <t>Le nouvel algorithme de google permet d'identifier la pertinence des liens d'un site, il favorise donc la qualité des liens que sa quantité</t>
+  </si>
+  <si>
+    <t>Une balise div contenant des mots-clés dans l'en-tête du site de la page d'accueil</t>
+  </si>
+  <si>
+    <t>Les mots-clés ne sont pas mis au bon endroit dans le site et peuvent même être interprété par google comme une pratique black hat et qui peut donc pénaliser le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Écrire des listes de mots hors d'une balise meta , sera interprété par google comme un bourrage de mot clé et sera sanctionné. Il est donc conseillé d'écrire comme si on s'adressait à une personne en donnant du sens à nos propos </t>
+  </si>
+  <si>
+    <t>Les balises label ne sont pas connectées avec leurs balises input</t>
+  </si>
+  <si>
+    <t>Les balises label permettent de faire comprendre à l'utilisateur comment bien remplir le formulaire sans problème</t>
+  </si>
+  <si>
+    <t>La balise label est le moyen naturel de définir une étiquette pour un widget de formulaire HTML</t>
+  </si>
+  <si>
+    <t>Les liens externes en Javascript dans la page contact ne sont pas accessibles</t>
+  </si>
+  <si>
+    <t>Les liens pour relier du code Javascript à la page HTML ne sont pas exacts et ne permettent donc pas d'appliquer les fonctions qui leur sont demandées</t>
+  </si>
+  <si>
+    <t>Indiquer le bon chemin où se trouve le code en Javascript permet à la page HTML de l'utiliser correctement</t>
+  </si>
+  <si>
+    <t>Bien linker le code 
+Javascript</t>
+  </si>
+  <si>
+    <t>Optimisées ses images</t>
+  </si>
+  <si>
+    <t>Réduire le code Javascript</t>
+  </si>
+  <si>
+    <t>Minimaliser le code Javascript afin d'optimiser la page du site et d'avoir un code plus "propre"</t>
+  </si>
+  <si>
+    <t>Dans la balise HTML nous devons donner un tag de langage par défaut écrire un tag "défault" n'a aucun sens</t>
+  </si>
+  <si>
+    <t>Donner la valeur due
+ langage qu'on s'apprête à écrire ici "fr"</t>
+  </si>
+  <si>
+    <t>Le format des images présentes sur le site</t>
+  </si>
+  <si>
+    <t>Selon les types de formats des images 
+le poids des images est susceptible d'être plus ou moins conséquente et donc peut ralentir le temps de traitement de la page</t>
+  </si>
+  <si>
+    <t>Chargement de script Javascript/Css non pertinent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlever les ressources qui ne sont pas nécessaires pour le chargement de la page </t>
+  </si>
+  <si>
+    <t>Enlever les liens Javascript/Css inutilisé</t>
+  </si>
+  <si>
+    <t>Structurées de manière ordonnée les balises h1 à h6 permettent non seulement aux visiteurs de comprendre l'architecture du site mais aussi à aider les moteurs de recherche à trouver un site plus facilement</t>
+  </si>
+  <si>
+    <t>Bien structurait ses balises h1/h6</t>
+  </si>
+  <si>
+    <t>Inclure des librairies Javascript où les vulnérabilités sont connues</t>
+  </si>
+  <si>
+    <t>Mettre des librairies
+Javascript où les vulnérabilités sont connues, peut permettre à des gens malveillants de faire beaucoup de dégat pour l'entreprise</t>
+  </si>
+  <si>
+    <t>Faire en sorte de mettre
+des librairies Javascript à jour</t>
+  </si>
+  <si>
+    <t>Mettre à jour les 
+librairies Javascript</t>
+  </si>
+  <si>
+    <t>Le cls(cumulative Layout Shift) est le changement de mise en page lors d'une mise à échelle d'un site afin de créer une meilleure expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Propriété "constant(safe-area-inset-left)" est erronée dans le code Css</t>
+  </si>
+  <si>
+    <t>L'utilisation de la propriété "padding-left: constant(safe-area-inset-left)" n'est pas une propriété de "padding-left" et donc ne peut pas être utilisée dans le code Css</t>
+  </si>
+  <si>
+    <t>Utiliser une bonne valeur de la propriété "padding-left" permet l'utilisation de ce bout de code</t>
+  </si>
+  <si>
+    <t>L'utilisation de la propriété "max-device-with" dans la feuille Css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser les propriétés "max-widht"/"min-width
+</t>
+  </si>
+  <si>
+    <t>Erreur de stockage de message dans le formulaire HTML</t>
+  </si>
+  <si>
+    <t>Pour pouvoir utiliser des donnés stockés en HTML dans du Javascript, l'utilisation d'une syntaxe précise dans le code HTML est de mise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser la syntaxe "data" suivit de nom de la donnée
+</t>
+  </si>
+  <si>
+    <t>La non-utilisation de balise type "aria-label"</t>
+  </si>
+  <si>
+    <t>En format mobile, le font-size du texte est trop petit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les font-sizes en format mobile doit avoir une taille supérieure ou égale à 12px afin de permettre une bonne visibilité </t>
+  </si>
+  <si>
+    <t>Si un ratio d'écran est de  4.5:1 alors la taille du texte doit être de 18 points minimums</t>
+  </si>
+  <si>
+    <t>Mettre une taille de font-size supérieure à 12px</t>
+  </si>
+  <si>
+    <t>En utilisant la balise &lt;a&gt; la propriété utilisée est "href" et non "onClick"</t>
+  </si>
+  <si>
+    <t>Si le chargement de la police d'écriture prend du temps alors le texte ne sera pas affiché</t>
+  </si>
+  <si>
+    <t>Afin d'afficher du texte et eviter qu'il soit invisible lors du chargement de la police d'écriture il faut placer "font-display: swap;" dans le Css contenant les polices d'écriture</t>
+  </si>
+  <si>
+    <t>Utiliser des balises types "aria-label" dans le code HTML et "focus" dans le code Css pour des parties de sites non textuels et/ou qui manquerait de compréhension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre "font-display: swap;" dans le Css portant la police d'écriture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demander au navigateur de charger le script js en arrière-plan </t>
+  </si>
+  <si>
+    <t>Mettre l'attribut "defer"   dans  la balise "script" et préload dans la balise  "link" de la partie head du code HTML</t>
+  </si>
+  <si>
+    <t>Ne pas avoir des images plus petites pour les formats mobile</t>
+  </si>
+  <si>
+    <t>Certaines images ont des formats trop volumineux pour le format mobile qui ralentit donc le chargement de la page web</t>
+  </si>
+  <si>
+    <t>Avoir des images ayant des formats différents pour permettre au navigateur de sélectionner le plus approprié et de réduire le temps de chargement de la page</t>
+  </si>
+  <si>
+    <t>Avoir des formats d'images plus petites</t>
   </si>
 </sst>
 </file>
@@ -664,7 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1040,732 +1039,732 @@
       <c r="F2" s="10"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="16" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="146.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,7 +1775,7 @@
     <row r="32" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>

--- a/audit-seo.xlsx
+++ b/audit-seo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lim David\Desktop\site\Projet Openclassoom\la-panthere-optimise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F44BF1-C4D8-429A-91A1-08D168F72CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4FC5B-5C08-4DA4-8365-42E4A02F933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,6 @@
     <t xml:space="preserve">Seo </t>
   </si>
   <si>
-    <t xml:space="preserve">La balise meta de la description et de la balise title ne sont pas remlplie 
-</t>
-  </si>
-  <si>
     <t>Optimisation</t>
   </si>
   <si>
@@ -80,10 +76,6 @@
   </si>
   <si>
     <t>Manque de réactivité lors du survole de la souris dans la barre de navigation</t>
-  </si>
-  <si>
-    <t>Manque de cohérence 
-entre la barre de navigation de la page d'accueil et de la page contact</t>
   </si>
   <si>
     <t xml:space="preserve">Seo/Optimisation </t>
@@ -153,9 +145,6 @@
 </t>
   </si>
   <si>
-    <t>Lors de la création de nouvelle page de site, il faut que sa structure reste suffisamment cohérente pour ne pas gêner les visiteurs du site</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://la-webeuse.com/lien-dans-le-footer/#:~:text=un%20FOOTER%20est%20le%20pied,des%20pages%20d'un%20site
 </t>
   </si>
@@ -187,9 +176,6 @@
     <t>La valeur "défault" de la balise HTML</t>
   </si>
   <si>
-    <t>Donner un langage par défaut pour un site permet de faire comprendre qu'on écrit du texte du langage par défaut</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.w3.org/International/techniques/authoring-html.en?open=language&amp;open=textprocessing#textprocessing
 </t>
   </si>
@@ -309,10 +295,6 @@
 </t>
   </si>
   <si>
-    <t>Terminé partiellement:
-Les mises à jour ont été faites mais, les vulnérabilités sont encore présentes. Il faudra mettre les mises à jour majeur et donc une remodelisation du code source pour ne plus avoir de vulnérabilité</t>
-  </si>
-  <si>
     <t>Le texte n'est pas visible lors du chargement de la police d'écriture</t>
   </si>
   <si>
@@ -322,9 +304,6 @@
     <t>Le chargement des fichiers scripts js bloque le chargement de la page html</t>
   </si>
   <si>
-    <t>Quand les fichiers js sont analysés par le navigateur web il arrête le chargement de la page html ceux qui ralentissent donc les performances du site</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools
 </t>
   </si>
@@ -334,9 +313,6 @@
   <si>
     <t xml:space="preserve">https://web.dev/uses-long-cache-ttl/?utm_source=lighthouse&amp;utm_medium=devtools
 </t>
-  </si>
-  <si>
-    <t>La mise en place du cache des ressources du site</t>
   </si>
   <si>
     <t>Configurer le serveur pour pourvoir gérait le stockage de données</t>
@@ -380,10 +356,6 @@
 </t>
   </si>
   <si>
-    <t>En format mobile les images textes sont coupées, on ne 
-peut pas lire le texte entièrement et les images textes n'apportent aucune valeur ajoutée pour le Seo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les textes sont toujours 
 écrit en HTML </t>
   </si>
@@ -586,6 +558,34 @@
   </si>
   <si>
     <t>Avoir des formats d'images plus petites</t>
+  </si>
+  <si>
+    <t>En format mobile les images textes sont coupées, on ne 
+peut pas lire le texte entièrement et les images textes n'apportent aucune valeur ajoutée pour le référencement Seo</t>
+  </si>
+  <si>
+    <t>Configurer la mise en place du cache des ressources du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise meta  description et de la balise title ne sont pas remlplie 
+</t>
+  </si>
+  <si>
+    <t>Manque de cohérence 
+entre la barre de navigation, de la page d'accueil et de la page contact</t>
+  </si>
+  <si>
+    <t>Lors de la création de nouvelle page de site, il faut que sa structure reste suffisamment cohérente pour ne pas gêner l'expérience utilisateur pour les visiteurs du site</t>
+  </si>
+  <si>
+    <t>Donner un langage par défaut pour un site permet de faire comprendre au navigateur dans quelle langue le site est écrit</t>
+  </si>
+  <si>
+    <t>Terminé partiellement:
+Les mises à jour ont été faites mais, les vulnérabilités sont encore présentes. Il faudra mettre les mises à jour majeur et donc cela necessite une remodelisation du code source pour ne plus avoir de vulnérabilité</t>
+  </si>
+  <si>
+    <t>Quand les fichiers js sont analysés par le navigateur web il arrête le chargement de la page HTML ceux qui ralentissent donc les performances du site</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1041,80 +1041,80 @@
     </row>
     <row r="3" spans="1:26" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,649 +1122,649 @@
         <v>11</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="146.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="265.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
     <row r="32" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
